--- a/biology/Botanique/B.Mey/B.Mey..xlsx
+++ b/biology/Botanique/B.Mey/B.Mey..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Meyer est un médecin, un botaniste et un ornithologue allemand, né le 24 août 1767 à Hanau et mort le 1er janvier 1836 près d’Offenbach.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du chirurgien et dentiste Jakob Meyer, il étudie la médecine à Marbourg pour obtenir son diplôme en 1790[1]. À partir de 1791 il travaille comme médecin à Hanau et en 1795 il est médecin personnel de la veuve du Landgrave de Hesse-Cassel et possède de bonnes connaissances en art dentaire qu'il tient de son père[1].
-Il reprend ensuite une pharmacie à Offenbach[2] et, ayant fait fortune, il se consacre dès lors à l’histoire naturelle et l'ornithologie[2]. 
-Meyer est le coauteur avec Gottfried Gaertner (1754-1825) et Johannes Scherbius (1769-1813) de Oekonomisch-technische Flora der Wetterau (1799)[3], qui donne le nom scientifique de nombreuses plantes. Il est aussi le coauteur avec Johann Wolf (de) (1765-1824) de Naturgeschichte der Vögel Deutschlands (1805)[4] et de Taschenbuch der deutschen Vögelkunde (1810)[5].
-Il est conseiller auprès du prince d’Isenburg. Il applique strictement les principes linnéens. À cette époque de grande activité pour l’ornithologie allemande, il exerce une certaine influence notamment parce qu’il adhère à la « Naturphilosophie » suscité par Lorenz Oken (1779-1851)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du chirurgien et dentiste Jakob Meyer, il étudie la médecine à Marbourg pour obtenir son diplôme en 1790. À partir de 1791 il travaille comme médecin à Hanau et en 1795 il est médecin personnel de la veuve du Landgrave de Hesse-Cassel et possède de bonnes connaissances en art dentaire qu'il tient de son père.
+Il reprend ensuite une pharmacie à Offenbach et, ayant fait fortune, il se consacre dès lors à l’histoire naturelle et l'ornithologie. 
+Meyer est le coauteur avec Gottfried Gaertner (1754-1825) et Johannes Scherbius (1769-1813) de Oekonomisch-technische Flora der Wetterau (1799), qui donne le nom scientifique de nombreuses plantes. Il est aussi le coauteur avec Johann Wolf (de) (1765-1824) de Naturgeschichte der Vögel Deutschlands (1805) et de Taschenbuch der deutschen Vögelkunde (1810).
+Il est conseiller auprès du prince d’Isenburg. Il applique strictement les principes linnéens. À cette époque de grande activité pour l’ornithologie allemande, il exerce une certaine influence notamment parce qu’il adhère à la « Naturphilosophie » suscité par Lorenz Oken (1779-1851).
 </t>
         </is>
       </c>
